--- a/issues96/ig/StructureDefinition-sdo-task.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T11:08:19+00:00</t>
+    <t>2024-03-28T15:28:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {(input.type.where(text='idUnite').exists()) implies (input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() and input.type.where(text='statutUnite').exists())}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {(input.type.where(text='statutUnite').exists()) implies (input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() and input.type.where(text='idUnite').exists())}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
   </si>
   <si>
     <t>Request, Event</t>

--- a/issues96/ig/StructureDefinition-sdo-task.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="651">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:28:05+00:00</t>
+    <t>2024-04-02T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {(input.type.where(text='statutUnite').exists()) implies (input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() and input.type.where(text='idUnite').exists())}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {(input.type.where(text='statutUnite').exists()) implies (input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() and input.type.where(text='idUnite').exists())}</t>
   </si>
   <si>
     <t>Request, Event</t>
@@ -1582,7 +1582,7 @@
     <t>motifESMS</t>
   </si>
   <si>
-    <t>Permet de définir le motif associé au statut de l’usager dans l’ESMS. Motifs obligatoires pour certains statuts suivant la table : https://mos.esante.gouv.fr/NOS/ASS_A32-StatutMotifPersonnePriseCharge/ASS_A32-StatutMotifPersonnePriseCharge.pdf</t>
+    <t>Permet de définir le motif associé au statut de l’usager dans l’ESMS.</t>
   </si>
   <si>
     <t>Task.input:motifESMS.id</t>
@@ -1608,6 +1608,9 @@
     <t>Task.input:motifESMS.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Motifs obligatoires pour certains statuts suivant la table : https://mos.esante.gouv.fr/NOS/ASS_A32-StatutMotifPersonnePriseCharge/ASS_A32-StatutMotifPersonnePriseCharge.pdf</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J251-MotifStatutPersonnePriseChargeESMS/FHIR/JDV-J251-MotifStatutPersonnePriseChargeESMS</t>
   </si>
   <si>
@@ -1824,6 +1827,10 @@
   </si>
   <si>
     <t>Permet de définir le mode de prise en charge</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : 46 (Hébergement (accueil jour et nuit)) ; 47 (Accueil de jour); 48 (Accueil de nuit) {value.coding.code='48' or value.coding.code='47' or value.coding.code='46'}</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.id</t>
@@ -11873,7 +11880,7 @@
         <v>251</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>468</v>
@@ -11907,7 +11914,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>76</v>
@@ -11954,13 +11961,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>448</v>
@@ -11985,7 +11992,7 @@
         <v>417</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>451</v>
@@ -12070,7 +12077,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>455</v>
@@ -12182,7 +12189,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>456</v>
@@ -12296,7 +12303,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>457</v>
@@ -12412,7 +12419,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>458</v>
@@ -12460,7 +12467,7 @@
         <v>76</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>76</v>
@@ -12528,7 +12535,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>465</v>
@@ -12554,7 +12561,7 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>467</v>
@@ -12640,13 +12647,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>448</v>
@@ -12671,7 +12678,7 @@
         <v>417</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>451</v>
@@ -12756,7 +12763,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>455</v>
@@ -12868,7 +12875,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>456</v>
@@ -12982,7 +12989,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>457</v>
@@ -13098,7 +13105,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>458</v>
@@ -13146,7 +13153,7 @@
         <v>76</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>76</v>
@@ -13214,7 +13221,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>465</v>
@@ -13326,13 +13333,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>448</v>
@@ -13357,7 +13364,7 @@
         <v>417</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>451</v>
@@ -13442,7 +13449,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>455</v>
@@ -13554,7 +13561,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>456</v>
@@ -13668,7 +13675,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>457</v>
@@ -13784,7 +13791,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>458</v>
@@ -13832,7 +13839,7 @@
         <v>76</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>76</v>
@@ -13900,7 +13907,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>465</v>
@@ -14012,13 +14019,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>448</v>
@@ -14043,7 +14050,7 @@
         <v>417</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>451</v>
@@ -14128,7 +14135,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>455</v>
@@ -14240,7 +14247,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>456</v>
@@ -14354,7 +14361,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>457</v>
@@ -14470,7 +14477,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>458</v>
@@ -14518,7 +14525,7 @@
         <v>76</v>
       </c>
       <c r="S106" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="T106" t="s" s="2">
         <v>76</v>
@@ -14586,7 +14593,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>465</v>
@@ -14649,7 +14656,7 @@
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>76</v>
@@ -14696,13 +14703,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>448</v>
@@ -14727,7 +14734,7 @@
         <v>417</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>451</v>
@@ -14812,7 +14819,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>455</v>
@@ -14924,7 +14931,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>456</v>
@@ -15038,7 +15045,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>457</v>
@@ -15154,7 +15161,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>458</v>
@@ -15202,7 +15209,7 @@
         <v>76</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>76</v>
@@ -15270,7 +15277,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>465</v>
@@ -15333,7 +15340,7 @@
       </c>
       <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>76</v>
@@ -15380,13 +15387,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>448</v>
@@ -15411,7 +15418,7 @@
         <v>417</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>451</v>
@@ -15496,7 +15503,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>455</v>
@@ -15608,7 +15615,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>456</v>
@@ -15722,7 +15729,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>457</v>
@@ -15838,7 +15845,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>458</v>
@@ -15886,7 +15893,7 @@
         <v>76</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>76</v>
@@ -15954,7 +15961,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>465</v>
@@ -15980,7 +15987,7 @@
         <v>76</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L119" t="s" s="2">
         <v>467</v>
@@ -16066,13 +16073,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>448</v>
@@ -16097,7 +16104,7 @@
         <v>417</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M120" t="s" s="2">
         <v>451</v>
@@ -16165,7 +16172,7 @@
         <v>98</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>99</v>
+        <v>569</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>76</v>
@@ -16182,7 +16189,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>455</v>
@@ -16294,7 +16301,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>456</v>
@@ -16408,7 +16415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>457</v>
@@ -16524,7 +16531,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>458</v>
@@ -16572,7 +16579,7 @@
         <v>76</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>76</v>
@@ -16640,7 +16647,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>465</v>
@@ -16703,7 +16710,7 @@
       </c>
       <c r="Y125" s="2"/>
       <c r="Z125" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>76</v>
@@ -16750,13 +16757,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>448</v>
@@ -16781,7 +16788,7 @@
         <v>417</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>451</v>
@@ -16866,7 +16873,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>455</v>
@@ -16978,7 +16985,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>456</v>
@@ -17092,7 +17099,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>457</v>
@@ -17208,7 +17215,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>458</v>
@@ -17256,7 +17263,7 @@
         <v>76</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>76</v>
@@ -17324,7 +17331,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>465</v>
@@ -17387,7 +17394,7 @@
       </c>
       <c r="Y131" s="2"/>
       <c r="Z131" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>76</v>
@@ -17434,13 +17441,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D132" t="s" s="2">
         <v>448</v>
@@ -17465,7 +17472,7 @@
         <v>417</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>451</v>
@@ -17550,7 +17557,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>455</v>
@@ -17662,7 +17669,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>456</v>
@@ -17776,7 +17783,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>457</v>
@@ -17892,7 +17899,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>458</v>
@@ -17940,7 +17947,7 @@
         <v>76</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>76</v>
@@ -18008,7 +18015,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>465</v>
@@ -18034,7 +18041,7 @@
         <v>76</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L137" t="s" s="2">
         <v>467</v>
@@ -18120,13 +18127,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>448</v>
@@ -18151,7 +18158,7 @@
         <v>417</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>451</v>
@@ -18236,7 +18243,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>455</v>
@@ -18348,7 +18355,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>456</v>
@@ -18462,7 +18469,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>457</v>
@@ -18578,7 +18585,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>458</v>
@@ -18626,7 +18633,7 @@
         <v>76</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>76</v>
@@ -18694,7 +18701,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>465</v>
@@ -18723,7 +18730,7 @@
         <v>251</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>468</v>
@@ -18757,7 +18764,7 @@
       </c>
       <c r="Y143" s="2"/>
       <c r="Z143" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>76</v>
@@ -18804,13 +18811,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>448</v>
@@ -18835,7 +18842,7 @@
         <v>417</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M144" t="s" s="2">
         <v>451</v>
@@ -18920,7 +18927,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>455</v>
@@ -19032,7 +19039,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>456</v>
@@ -19146,7 +19153,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>457</v>
@@ -19262,7 +19269,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>458</v>
@@ -19310,7 +19317,7 @@
         <v>76</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>76</v>
@@ -19378,7 +19385,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>465</v>
@@ -19441,7 +19448,7 @@
       </c>
       <c r="Y149" s="2"/>
       <c r="Z149" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>76</v>
@@ -19488,13 +19495,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>448</v>
@@ -19519,7 +19526,7 @@
         <v>417</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>451</v>
@@ -19604,7 +19611,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>455</v>
@@ -19716,7 +19723,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>456</v>
@@ -19830,7 +19837,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>457</v>
@@ -19946,7 +19953,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>458</v>
@@ -19994,7 +20001,7 @@
         <v>76</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>76</v>
@@ -20062,7 +20069,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>465</v>
@@ -20174,13 +20181,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>447</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>448</v>
@@ -20205,7 +20212,7 @@
         <v>417</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M156" t="s" s="2">
         <v>451</v>
@@ -20290,7 +20297,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>455</v>
@@ -20402,7 +20409,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>456</v>
@@ -20516,7 +20523,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>457</v>
@@ -20632,7 +20639,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>458</v>
@@ -20680,7 +20687,7 @@
         <v>76</v>
       </c>
       <c r="S160" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>76</v>
@@ -20748,7 +20755,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>465</v>
@@ -20860,10 +20867,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20889,14 +20896,14 @@
         <v>417</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>76</v>
@@ -20945,7 +20952,7 @@
         <v>76</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -20974,10 +20981,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21086,10 +21093,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21200,10 +21207,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21316,10 +21323,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21345,16 +21352,16 @@
         <v>251</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>261</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>76</v>
@@ -21382,7 +21389,7 @@
         <v>156</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>76</v>
@@ -21403,7 +21410,7 @@
         <v>76</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>86</v>
@@ -21432,10 +21439,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21461,14 +21468,14 @@
         <v>466</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>76</v>
@@ -21517,7 +21524,7 @@
         <v>76</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>86</v>

--- a/issues96/ig/StructureDefinition-sdo-task.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T07:24:27+00:00</t>
+    <t>2024-04-02T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1932,7 +1932,7 @@
     <t>motifUnite</t>
   </si>
   <si>
-    <t>Permet de définir le motif de sortie ou d’admission impossible</t>
+    <t>Permet de définir le motif associé au statut de l’usager dans l'unité</t>
   </si>
   <si>
     <t>Task.input:motifUnite.id</t>

--- a/issues96/ig/StructureDefinition-sdo-task.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T13:59:53+00:00</t>
+    <t>2024-04-03T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-sdo-task.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T07:12:34+00:00</t>
+    <t>2024-04-03T15:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-sdo-task.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T15:04:53+00:00</t>
+    <t>2024-04-04T12:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/issues96/ig/StructureDefinition-sdo-task.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:58:54+00:00</t>
+    <t>2024-04-05T07:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-sdo-task.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6219" uniqueCount="673">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-05T07:48:28+00:00</t>
+    <t>2024-04-08T12:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1483,7 +1483,7 @@
     <t>idNat_Struct</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant de l'ESMS accueillant l'individu en situation de handicap. Cet identifiant est obtenu par la concaténation du type d'identifiant national de structure (provenant de la nomenclature TRE_G07-TypeIdentifiantStructure) et de l'identifiant de la structure: ** 1 + N° FINESS (entité juridique et entité géographique indéterminées);** 3 + N° SIRET </t>
+    <t>Identifiant de l'ESMS accueillant l'individu en situation de handicap. Cet identifiant est obtenu par la concaténation du type d'identifiant national de structure (provenant de la nomenclature TRE_G07-TypeIdentifiantStructure) et de l'identifiant de la structure: ** 1 + N° FINESS (entité juridique et entité géographique indéterminées);** 3 + N° SIRET</t>
   </si>
   <si>
     <t>Task.input:idNat_Struct.id</t>
@@ -1608,7 +1608,7 @@
     <t>Task.input:motifESMS.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve"> Motifs obligatoires pour certains statuts suivant la table : https://mos.esante.gouv.fr/NOS/ASS_A32-StatutMotifPersonnePriseCharge/ASS_A32-StatutMotifPersonnePriseCharge.pdf</t>
+    <t>Motifs obligatoires pour certains statuts suivant la table : https://mos.esante.gouv.fr/NOS/ASS_A32-StatutMotifPersonnePriseCharge/ASS_A32-StatutMotifPersonnePriseCharge.pdf</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J251-MotifStatutPersonnePriseChargeESMS/FHIR/JDV-J251-MotifStatutPersonnePriseChargeESMS</t>
@@ -1830,7 +1830,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : 46 (Hébergement (accueil jour et nuit)) ; 47 (Accueil de jour); 48 (Accueil de nuit) {value.coding.code='48' or value.coding.code='47' or value.coding.code='46'}</t>
+regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : 46 (Hébergement (accueil jour et nuit)) ; 47 (Accueil de jour); 48 (Accueil de nuit) {(value.coding.where(code='48').exists()) or (value.coding.where(code='47').exists()) or (value.coding.where(code='46').exists())}</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.id</t>
@@ -1859,6 +1859,72 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_JXX-ModePriseEnCharge/FHIR/JDV_JXX-ModePriseEnCharge/</t>
   </si>
   <si>
+    <t>Task.input:modePriseCharge.value[x].id</t>
+  </si>
+  <si>
+    <t>Task.input.value[x].id</t>
+  </si>
+  <si>
+    <t>Task.input:modePriseCharge.value[x].extension</t>
+  </si>
+  <si>
+    <t>Task.input.value[x].extension</t>
+  </si>
+  <si>
+    <t>Task.input:modePriseCharge.value[x].coding</t>
+  </si>
+  <si>
+    <t>Task.input.value[x].coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Task.input:modePriseCharge.value[x].text</t>
+  </si>
+  <si>
+    <t>Task.input.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Task.input:statutUnite</t>
   </si>
   <si>
@@ -1970,7 +2036,7 @@
     <t>typeDroitPrestation</t>
   </si>
   <si>
-    <t xml:space="preserve">Permet de définir le type de droit et prestation caractérisant la décision d'orientation. </t>
+    <t>Permet de définir le type de droit et prestation caractérisant la décision d'orientation.</t>
   </si>
   <si>
     <t>Task.input:typeDroitPrestation.id</t>
@@ -2411,7 +2477,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN167"/>
+  <dimension ref="A1:AN171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -16760,13 +16826,11 @@
         <v>577</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C126" t="s" s="2">
         <v>578</v>
       </c>
+      <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>448</v>
+        <v>76</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -16785,18 +16849,16 @@
         <v>76</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>417</v>
+        <v>102</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>579</v>
+        <v>103</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>451</v>
+        <v>104</v>
       </c>
       <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16844,25 +16906,25 @@
         <v>76</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>447</v>
+        <v>105</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16873,21 +16935,21 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B127" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>76</v>
@@ -16899,15 +16961,17 @@
         <v>76</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>76</v>
@@ -16944,37 +17008,37 @@
         <v>76</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AC127" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AD127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16988,18 +17052,18 @@
         <v>581</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>456</v>
+        <v>582</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>76</v>
@@ -17008,21 +17072,23 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>110</v>
+        <v>583</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>111</v>
+        <v>584</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O128" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>76</v>
       </c>
@@ -17058,19 +17124,19 @@
         <v>76</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>116</v>
+        <v>587</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -17082,62 +17148,62 @@
         <v>98</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>100</v>
+        <v>588</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>76</v>
+        <v>589</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>457</v>
+        <v>591</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>426</v>
+        <v>592</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>427</v>
+        <v>593</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>112</v>
+        <v>594</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>195</v>
+        <v>595</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>76</v>
@@ -17186,47 +17252,49 @@
         <v>76</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>428</v>
+        <v>596</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>100</v>
+        <v>597</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>76</v>
+        <v>598</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C130" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="D130" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>86</v>
@@ -17241,19 +17309,17 @@
         <v>76</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>251</v>
+        <v>417</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>460</v>
+        <v>601</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>76</v>
@@ -17263,7 +17329,7 @@
         <v>76</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>584</v>
+        <v>76</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>76</v>
@@ -17278,10 +17344,10 @@
         <v>76</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>76</v>
@@ -17302,13 +17368,13 @@
         <v>76</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>98</v>
@@ -17326,15 +17392,15 @@
         <v>76</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17342,7 +17408,7 @@
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>86</v>
@@ -17357,13 +17423,13 @@
         <v>76</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>467</v>
+        <v>103</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>468</v>
+        <v>104</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17390,11 +17456,13 @@
         <v>76</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y131" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z131" t="s" s="2">
-        <v>586</v>
+        <v>76</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>76</v>
@@ -17412,25 +17480,25 @@
         <v>76</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17441,23 +17509,21 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C132" t="s" s="2">
-        <v>588</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>76</v>
@@ -17469,18 +17535,18 @@
         <v>76</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>417</v>
+        <v>109</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>589</v>
+        <v>110</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>76</v>
       </c>
@@ -17516,19 +17582,19 @@
         <v>76</v>
       </c>
       <c r="AB132" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AC132" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AD132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>447</v>
+        <v>116</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
@@ -17540,13 +17606,13 @@
         <v>98</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
@@ -17557,42 +17623,46 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P133" t="s" s="2">
         <v>76</v>
       </c>
@@ -17640,25 +17710,25 @@
         <v>76</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>105</v>
+        <v>428</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
@@ -17669,21 +17739,21 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>108</v>
+        <v>459</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>76</v>
@@ -17695,18 +17765,20 @@
         <v>76</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O134" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P134" t="s" s="2">
         <v>76</v>
       </c>
@@ -17715,7 +17787,7 @@
         <v>76</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>76</v>
+        <v>606</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>76</v>
@@ -17730,10 +17802,10 @@
         <v>76</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>76</v>
@@ -17742,87 +17814,83 @@
         <v>76</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AC134" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AD134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>116</v>
+        <v>458</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>76</v>
       </c>
@@ -17846,13 +17914,11 @@
         <v>76</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y135" s="2"/>
       <c r="Z135" t="s" s="2">
-        <v>76</v>
+        <v>608</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>76</v>
@@ -17870,25 +17936,25 @@
         <v>76</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
@@ -17899,18 +17965,20 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C136" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="D136" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>86</v>
@@ -17925,19 +17993,17 @@
         <v>76</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>251</v>
+        <v>417</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>460</v>
+        <v>611</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>76</v>
@@ -17947,7 +18013,7 @@
         <v>76</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>594</v>
+        <v>76</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>76</v>
@@ -17962,10 +18028,10 @@
         <v>76</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17986,13 +18052,13 @@
         <v>76</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>98</v>
@@ -18010,15 +18076,15 @@
         <v>76</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18026,7 +18092,7 @@
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>86</v>
@@ -18041,13 +18107,13 @@
         <v>76</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>517</v>
+        <v>102</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>467</v>
+        <v>103</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>468</v>
+        <v>104</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18098,25 +18164,25 @@
         <v>76</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -18127,23 +18193,21 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>76</v>
@@ -18155,18 +18219,18 @@
         <v>76</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>417</v>
+        <v>109</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>598</v>
+        <v>110</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>76</v>
       </c>
@@ -18202,19 +18266,19 @@
         <v>76</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AC138" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AD138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>447</v>
+        <v>116</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -18226,13 +18290,13 @@
         <v>98</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -18243,42 +18307,46 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P139" t="s" s="2">
         <v>76</v>
       </c>
@@ -18326,25 +18394,25 @@
         <v>76</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>105</v>
+        <v>428</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -18355,21 +18423,21 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>108</v>
+        <v>459</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>76</v>
@@ -18381,18 +18449,20 @@
         <v>76</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O140" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18401,7 +18471,7 @@
         <v>76</v>
       </c>
       <c r="S140" t="s" s="2">
-        <v>76</v>
+        <v>616</v>
       </c>
       <c r="T140" t="s" s="2">
         <v>76</v>
@@ -18416,10 +18486,10 @@
         <v>76</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18428,87 +18498,83 @@
         <v>76</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AC140" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AD140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>116</v>
+        <v>458</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>109</v>
+        <v>517</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>76</v>
       </c>
@@ -18556,25 +18622,25 @@
         <v>76</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>76</v>
@@ -18585,18 +18651,20 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C142" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>619</v>
+      </c>
       <c r="D142" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>86</v>
@@ -18611,19 +18679,17 @@
         <v>76</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>251</v>
+        <v>417</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>76</v>
@@ -18633,7 +18699,7 @@
         <v>76</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>603</v>
+        <v>76</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>76</v>
@@ -18648,10 +18714,10 @@
         <v>76</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>76</v>
@@ -18672,13 +18738,13 @@
         <v>76</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>98</v>
@@ -18696,15 +18762,15 @@
         <v>76</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18712,7 +18778,7 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>86</v>
@@ -18727,13 +18793,13 @@
         <v>76</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>605</v>
+        <v>103</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>468</v>
+        <v>104</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -18760,11 +18826,13 @@
         <v>76</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y143" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z143" t="s" s="2">
-        <v>606</v>
+        <v>76</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>76</v>
@@ -18782,25 +18850,25 @@
         <v>76</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>76</v>
@@ -18811,23 +18879,21 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>76</v>
@@ -18839,18 +18905,18 @@
         <v>76</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>417</v>
+        <v>109</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>609</v>
+        <v>110</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N144" s="2"/>
-      <c r="O144" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>76</v>
       </c>
@@ -18886,19 +18952,19 @@
         <v>76</v>
       </c>
       <c r="AB144" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AC144" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AD144" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>447</v>
+        <v>116</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>77</v>
@@ -18910,13 +18976,13 @@
         <v>98</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>76</v>
@@ -18927,42 +18993,46 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P145" t="s" s="2">
         <v>76</v>
       </c>
@@ -19010,25 +19080,25 @@
         <v>76</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>105</v>
+        <v>428</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>76</v>
@@ -19039,21 +19109,21 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>108</v>
+        <v>459</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>76</v>
@@ -19065,18 +19135,20 @@
         <v>76</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P146" t="s" s="2">
         <v>76</v>
       </c>
@@ -19085,7 +19157,7 @@
         <v>76</v>
       </c>
       <c r="S146" t="s" s="2">
-        <v>76</v>
+        <v>625</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>76</v>
@@ -19100,10 +19172,10 @@
         <v>76</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>76</v>
@@ -19112,87 +19184,83 @@
         <v>76</v>
       </c>
       <c r="AB146" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AC146" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AD146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>116</v>
+        <v>458</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>426</v>
+        <v>627</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>76</v>
       </c>
@@ -19216,13 +19284,11 @@
         <v>76</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y147" s="2"/>
       <c r="Z147" t="s" s="2">
-        <v>76</v>
+        <v>628</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>76</v>
@@ -19240,25 +19306,25 @@
         <v>76</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>76</v>
@@ -19269,14 +19335,16 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C148" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="D148" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -19295,19 +19363,17 @@
         <v>76</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>251</v>
+        <v>417</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>460</v>
+        <v>631</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>76</v>
@@ -19317,7 +19383,7 @@
         <v>76</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>614</v>
+        <v>76</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>76</v>
@@ -19332,10 +19398,10 @@
         <v>76</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>76</v>
@@ -19356,13 +19422,13 @@
         <v>76</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>98</v>
@@ -19380,15 +19446,15 @@
         <v>76</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19396,7 +19462,7 @@
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>86</v>
@@ -19411,13 +19477,13 @@
         <v>76</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>467</v>
+        <v>103</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>468</v>
+        <v>104</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -19444,11 +19510,13 @@
         <v>76</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y149" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z149" t="s" s="2">
-        <v>616</v>
+        <v>76</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>76</v>
@@ -19466,25 +19534,25 @@
         <v>76</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>76</v>
@@ -19495,23 +19563,21 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>76</v>
@@ -19523,18 +19589,18 @@
         <v>76</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>417</v>
+        <v>109</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>619</v>
+        <v>110</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>76</v>
       </c>
@@ -19570,19 +19636,19 @@
         <v>76</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AD150" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>447</v>
+        <v>116</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>77</v>
@@ -19594,13 +19660,13 @@
         <v>98</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>76</v>
@@ -19611,42 +19677,46 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P151" t="s" s="2">
         <v>76</v>
       </c>
@@ -19694,25 +19764,25 @@
         <v>76</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>105</v>
+        <v>428</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>76</v>
@@ -19723,21 +19793,21 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>108</v>
+        <v>459</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>76</v>
@@ -19749,18 +19819,20 @@
         <v>76</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O152" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="O152" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P152" t="s" s="2">
         <v>76</v>
       </c>
@@ -19769,7 +19841,7 @@
         <v>76</v>
       </c>
       <c r="S152" t="s" s="2">
-        <v>76</v>
+        <v>636</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>76</v>
@@ -19784,10 +19856,10 @@
         <v>76</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>76</v>
@@ -19796,87 +19868,83 @@
         <v>76</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AC152" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AD152" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>116</v>
+        <v>458</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>76</v>
       </c>
@@ -19900,13 +19968,11 @@
         <v>76</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y153" s="2"/>
       <c r="Z153" t="s" s="2">
-        <v>76</v>
+        <v>638</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>76</v>
@@ -19924,25 +19990,25 @@
         <v>76</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>76</v>
@@ -19953,14 +20019,16 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C154" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>640</v>
+      </c>
       <c r="D154" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -19979,19 +20047,17 @@
         <v>76</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>251</v>
+        <v>417</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>460</v>
+        <v>641</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>76</v>
@@ -20001,7 +20067,7 @@
         <v>76</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>624</v>
+        <v>76</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>76</v>
@@ -20016,10 +20082,10 @@
         <v>76</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>76</v>
@@ -20040,13 +20106,13 @@
         <v>76</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>98</v>
@@ -20064,15 +20130,15 @@
         <v>76</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20080,7 +20146,7 @@
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>86</v>
@@ -20095,13 +20161,13 @@
         <v>76</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>467</v>
+        <v>103</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>468</v>
+        <v>104</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -20152,25 +20218,25 @@
         <v>76</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>76</v>
@@ -20181,23 +20247,21 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>76</v>
@@ -20209,18 +20273,18 @@
         <v>76</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>417</v>
+        <v>109</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>628</v>
+        <v>110</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
         <v>76</v>
       </c>
@@ -20256,19 +20320,19 @@
         <v>76</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AC156" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AD156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>447</v>
+        <v>116</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>77</v>
@@ -20280,13 +20344,13 @@
         <v>98</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>76</v>
@@ -20297,42 +20361,46 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P157" t="s" s="2">
         <v>76</v>
       </c>
@@ -20380,25 +20448,25 @@
         <v>76</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>105</v>
+        <v>428</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>76</v>
@@ -20409,21 +20477,21 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>108</v>
+        <v>459</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>76</v>
@@ -20435,18 +20503,20 @@
         <v>76</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O158" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="O158" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P158" t="s" s="2">
         <v>76</v>
       </c>
@@ -20455,7 +20525,7 @@
         <v>76</v>
       </c>
       <c r="S158" t="s" s="2">
-        <v>76</v>
+        <v>646</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>76</v>
@@ -20470,10 +20540,10 @@
         <v>76</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>76</v>
@@ -20482,87 +20552,83 @@
         <v>76</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AD158" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>116</v>
+        <v>458</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
         <v>76</v>
       </c>
@@ -20610,25 +20676,25 @@
         <v>76</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>76</v>
@@ -20639,14 +20705,16 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C160" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="D160" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -20665,19 +20733,17 @@
         <v>76</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>251</v>
+        <v>417</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>460</v>
+        <v>650</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>76</v>
@@ -20687,7 +20753,7 @@
         <v>76</v>
       </c>
       <c r="S160" t="s" s="2">
-        <v>633</v>
+        <v>76</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>76</v>
@@ -20702,10 +20768,10 @@
         <v>76</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>76</v>
@@ -20726,13 +20792,13 @@
         <v>76</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>98</v>
@@ -20750,15 +20816,15 @@
         <v>76</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20766,7 +20832,7 @@
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>86</v>
@@ -20781,13 +20847,13 @@
         <v>76</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>467</v>
+        <v>103</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>468</v>
+        <v>104</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -20838,25 +20904,25 @@
         <v>76</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>76</v>
@@ -20867,14 +20933,14 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>635</v>
+        <v>456</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
@@ -20893,18 +20959,18 @@
         <v>76</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>417</v>
+        <v>109</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>636</v>
+        <v>110</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N162" s="2"/>
-      <c r="O162" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
         <v>76</v>
       </c>
@@ -20940,19 +21006,19 @@
         <v>76</v>
       </c>
       <c r="AB162" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AC162" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AD162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>635</v>
+        <v>116</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -20964,13 +21030,13 @@
         <v>98</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>76</v>
@@ -20981,42 +21047,46 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>639</v>
+        <v>457</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P163" t="s" s="2">
         <v>76</v>
       </c>
@@ -21064,25 +21134,25 @@
         <v>76</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>105</v>
+        <v>428</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>76</v>
@@ -21093,21 +21163,21 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>640</v>
+        <v>458</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>108</v>
+        <v>459</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>76</v>
@@ -21119,18 +21189,20 @@
         <v>76</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O164" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P164" t="s" s="2">
         <v>76</v>
       </c>
@@ -21139,7 +21211,7 @@
         <v>76</v>
       </c>
       <c r="S164" t="s" s="2">
-        <v>76</v>
+        <v>655</v>
       </c>
       <c r="T164" t="s" s="2">
         <v>76</v>
@@ -21154,10 +21226,10 @@
         <v>76</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>76</v>
@@ -21166,87 +21238,83 @@
         <v>76</v>
       </c>
       <c r="AB164" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AC164" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AD164" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>116</v>
+        <v>458</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>641</v>
+        <v>465</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
         <v>76</v>
       </c>
@@ -21294,25 +21362,25 @@
         <v>76</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>76</v>
@@ -21323,21 +21391,21 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>459</v>
+        <v>76</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>76</v>
@@ -21349,19 +21417,17 @@
         <v>76</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>251</v>
+        <v>417</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>76</v>
@@ -21386,10 +21452,10 @@
         <v>76</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>646</v>
+        <v>76</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>76</v>
@@ -21410,13 +21476,13 @@
         <v>76</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>98</v>
@@ -21434,15 +21500,15 @@
         <v>76</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21450,7 +21516,7 @@
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>86</v>
@@ -21465,18 +21531,16 @@
         <v>76</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>466</v>
+        <v>102</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>648</v>
+        <v>103</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>649</v>
+        <v>104</v>
       </c>
       <c r="N167" s="2"/>
-      <c r="O167" t="s" s="2">
-        <v>650</v>
-      </c>
+      <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
         <v>76</v>
       </c>
@@ -21524,30 +21588,490 @@
         <v>76</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>647</v>
+        <v>105</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN167" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O168" s="2"/>
+      <c r="P168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q168" s="2"/>
+      <c r="R168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI168" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ167" t="s" s="2">
+      <c r="AJ168" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN168" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O169" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="P169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q169" s="2"/>
+      <c r="R169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN169" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="P170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q170" s="2"/>
+      <c r="R170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL167" t="s" s="2">
+      <c r="AK170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL170" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AM167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN167" t="s" s="2">
+      <c r="AM170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN170" t="s" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="N171" s="2"/>
+      <c r="O171" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="P171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q171" s="2"/>
+      <c r="R171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN171" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/issues96/ig/StructureDefinition-sdo-task.xlsx
+++ b/issues96/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T12:44:22+00:00</t>
+    <t>2024-04-08T13:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
